--- a/biology/Médecine/1903_en_santé_et_médecine/1903_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1903_en_santé_et_médecine/1903_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1903_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1903_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1903 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1903_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1903_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,17 +523,19 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>28 avril : le physiologiste russe Ivan Pavlov, au 14e congrès médical international de Madrid, fait une communication sur « La Psychologie expérimentale et la Psychopathologie des animaux », où il esquisse sa théorie des réflexes conditionnés[1].
-1er mai : ouverture, boulevard Macdonald à Paris, de l'hôpital du Bastion no 27[2], devenu hôpital Docteur-Gabriel-Andral en 1906, fermé en 1933[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>28 avril : le physiologiste russe Ivan Pavlov, au 14e congrès médical international de Madrid, fait une communication sur « La Psychologie expérimentale et la Psychopathologie des animaux », où il esquisse sa théorie des réflexes conditionnés.
+1er mai : ouverture, boulevard Macdonald à Paris, de l'hôpital du Bastion no 27, devenu hôpital Docteur-Gabriel-Andral en 1906, fermé en 1933.
 23 mai : le biologiste britannique William Leishman publie ses observations sur le parasite responsable de la fièvre dumdum.
-23 juin : le chimiste français Ernest Fourneau et les établissements Poulenc frères déposent en France le brevet de la stovaïne, premier anesthésique local de synthèse commercialement exploitable[4]. Les essais cliniques sont confiés à Paul Reclus, initiateur en France de l’emploi de la cocaïne en chirurgie[5].
-11 juillet : en France, loi sur l'amélioration de la sécurité et l'hygiène au travail[6].
-10 octobre : l'aspirine est mise sur le marché en Allemagne[7].
-7 décembre : Alphonse Laveran, médecin et biologiste, et Félix Mesnil, zoologiste et biologiste, démontrent que le parasite responsable du kala-azar, une fièvre de l'Inde, est un nouveau protozoaire[8].
+23 juin : le chimiste français Ernest Fourneau et les établissements Poulenc frères déposent en France le brevet de la stovaïne, premier anesthésique local de synthèse commercialement exploitable. Les essais cliniques sont confiés à Paul Reclus, initiateur en France de l’emploi de la cocaïne en chirurgie.
+11 juillet : en France, loi sur l'amélioration de la sécurité et l'hygiène au travail.
+10 octobre : l'aspirine est mise sur le marché en Allemagne.
+7 décembre : Alphonse Laveran, médecin et biologiste, et Félix Mesnil, zoologiste et biologiste, démontrent que le parasite responsable du kala-azar, une fièvre de l'Inde, est un nouveau protozoaire.
 Les chimistes allemands Émile Fischer et Joseph von Mering synthétisent le premier barbiturique.
-Le physiologiste néerlandais Willem Einthoven adapte le galvanomètre à cordes à l'électrocardiographie[9].</t>
+Le physiologiste néerlandais Willem Einthoven adapte le galvanomètre à cordes à l'électrocardiographie.</t>
         </is>
       </c>
     </row>
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1903_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1903_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,9 +563,11 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Daniel Paul Schreber (1842-1911), juriste allemand, publie son ouvrage autobiographique, Mémoires d’un névropathe (Denkwürdigkeiten eines Nervenkranken)[10], dans lequel il décrit l'histoire de son délire. Ce cas sera étudié comme un cas de délire paranoïaque, notamment par Sigmund Freud[11].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Daniel Paul Schreber (1842-1911), juriste allemand, publie son ouvrage autobiographique, Mémoires d’un névropathe (Denkwürdigkeiten eines Nervenkranken), dans lequel il décrit l'histoire de son délire. Ce cas sera étudié comme un cas de délire paranoïaque, notamment par Sigmund Freud.</t>
         </is>
       </c>
     </row>
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1903_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1903_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,9 +595,11 @@
           <t>Prix</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Prix Nobel de physiologie ou médecine : Niels Ryberg Finsen, « en reconnaissance de sa contribution au traitement des maladies, particulièrement Lupus vulgaris, par une concentration de radiations lumineuses, ouvrant ainsi une nouvelle voie à la science médicale[12] ».</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Prix Nobel de physiologie ou médecine : Niels Ryberg Finsen, « en reconnaissance de sa contribution au traitement des maladies, particulièrement Lupus vulgaris, par une concentration de radiations lumineuses, ouvrant ainsi une nouvelle voie à la science médicale ».</t>
         </is>
       </c>
     </row>
@@ -591,7 +609,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1903_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1903_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,7 +627,9 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>27 janvier : John Carew Eccles (mort en 1997), neurophysiologiste australien, lauréat du prix Nobel de médecine, partagé en 1963 avec Alan Lloyd Hodgkin et Andrew Huxley pour leurs découvertes concernant l'électrophysiologie.
 9 février : Sten Forshufvud (mort en 1985), chirurgien-dentiste suédois et toxicologue amateur.
@@ -624,7 +644,7 @@
 29 novembre : Vincenzo Bianchini (mort en 2000), médecin, peintre, sculpteur, écrivain, poète et philosophe italien.
 3 décembre : Daniel Lagache (mort en 1972), psychiatre et psychanalyste français.
 10 décembre : Roger Couvelaire, urologue français, mort le 15 octobre 1986.
-22 décembre : Haldan Keffer Hartline (mort en 1983), médecin et neurophysiologiste américain, lauréat du prix Nobel de  médecine en 1967, « attribué conjointement, avec Ragnar Granit et George Wald, pour leurs découvertes relatives aux processus visuels physiologiques et chimiques primaires de l’œil[13] »
+22 décembre : Haldan Keffer Hartline (mort en 1983), médecin et neurophysiologiste américain, lauréat du prix Nobel de  médecine en 1967, « attribué conjointement, avec Ragnar Granit et George Wald, pour leurs découvertes relatives aux processus visuels physiologiques et chimiques primaires de l’œil »
 31 décembre : Zénon Bacq (mort en 1983), médecin et biologiste belge, militant wallon.
 Date inconnue
 Henri Aubin (mort en 1987), psychiatre français.
@@ -638,7 +658,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1903_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1903_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -656,12 +676,14 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">5 janvier : Photinos Panas (né en 1832), ophtalmologue et chirurgien français d'origine grecque.
 26 janvier : Pierre Coullery (né en 1819), médecin et homme politique suisse.
-20 mars : Thomas MacLagan (né en 1838), médecin et pharmacologue écossais[14].
-1er mai  : Emily Stowe (née en 1831), deuxième femme à pratiquer la médecine au Canada[15].
+20 mars : Thomas MacLagan (né en 1838), médecin et pharmacologue écossais.
+1er mai  : Emily Stowe (née en 1831), deuxième femme à pratiquer la médecine au Canada.
 14 juin : Karl Gegenbaur (né en 1826), anatomiste allemand.
 7 juillet : Carl Haussknecht (né en 1838), pharmacien et botaniste allemand.
 21 juillet : Nicolas Basile Bailly (né en 1817), médecin, inspecteur des Eaux, maire de Bains-les-Bains et conseiller général des Vosges.
